--- a/report/reliability/comb/Faculdade de Medicina - FAMED-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Medicina - FAMED-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7646720083795963</v>
+        <v>0.7448498351234393</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7903434873696084</v>
+        <v>0.7743598716035053</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8883629492392221</v>
+        <v>0.8782720397580048</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2390473397374409</v>
+        <v>0.20885285402510823</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.7697063518504823</v>
+        <v>3.431835804679215</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.025261873443608345</v>
+        <v>0.025699698703624676</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.8656462585034013</v>
+        <v>2.1554160125588697</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6641118410878614</v>
+        <v>0.5795775452925531</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.17631855437821803</v>
+        <v>0.1471872631473975</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.741051569558139</v>
+        <v>0.749015108482304</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7589915568808209</v>
+        <v>0.7829405850418351</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8677885185142535</v>
+        <v>0.8831748638307547</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22257265830088563</v>
+        <v>0.23111589485927592</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.149232230447203</v>
+        <v>3.60703351749444</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.027779051181660012</v>
+        <v>0.02593694549307524</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.036500712654882514</v>
+        <v>0.049433531125471185</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16419789660789674</v>
+        <v>0.15990284505982663</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7439382062088986</v>
+        <v>0.7241898554673228</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7649216430204263</v>
+        <v>0.7489784142679605</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8651199654591206</v>
+        <v>0.8614652586447589</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22828142346032088</v>
+        <v>0.19913085137749956</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.253900753980901</v>
+        <v>2.983721149253994</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.027458889153459606</v>
+        <v>0.027701967962997193</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03584030924229927</v>
+        <v>0.05261596551192906</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16725759834750442</v>
+        <v>0.13926890850511117</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7484829936647484</v>
+        <v>0.7286567442156642</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7673947846083848</v>
+        <v>0.7546903062013348</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8681759313731822</v>
+        <v>0.8626456787408396</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23072241477177097</v>
+        <v>0.20405822867482437</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.299129743571722</v>
+        <v>3.0764797530616046</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02706633170985636</v>
+        <v>0.027252291761866387</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03726902694171381</v>
+        <v>0.05234237775655349</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.16920484967156718</v>
+        <v>0.13926890850511117</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7522734542463098</v>
+        <v>0.7321665896336479</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7732643146402485</v>
+        <v>0.7496398390885638</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8671300608078981</v>
+        <v>0.8555241091190936</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.23666356302307393</v>
+        <v>0.1996929870395064</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.410421757886693</v>
+        <v>2.994245715290725</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.026637158052998725</v>
+        <v>0.027336292060187988</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.033974077886708844</v>
+        <v>0.03830780957834494</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17851821374684665</v>
+        <v>0.15113706639464508</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7420971382513173</v>
+        <v>0.7108969433931397</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7775076553310474</v>
+        <v>0.747480448595048</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8475708052473625</v>
+        <v>0.8537277075548738</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.24109336800821743</v>
+        <v>0.19786575632196965</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.4945366614204363</v>
+        <v>2.960089404706545</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.027647037367859797</v>
+        <v>0.028884191260156396</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.033001129990287294</v>
+        <v>0.03837048979306974</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18218614992610546</v>
+        <v>0.1471872631473975</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7461798584120004</v>
+        <v>0.7146236613323474</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7789224776369892</v>
+        <v>0.7484059618900523</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8484016985217853</v>
+        <v>0.8547341296407898</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24259638977665277</v>
+        <v>0.19864608484375765</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.5233001949334004</v>
+        <v>2.9746569811920422</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02719530443178742</v>
+        <v>0.028454997143897306</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03266726796797515</v>
+        <v>0.038249504361998185</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.18775704670181215</v>
+        <v>0.1471872631473975</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7537944488674694</v>
+        <v>0.7454264197277797</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7873198544792702</v>
+        <v>0.775003699577227</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8796500390674065</v>
+        <v>0.8794867282960913</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.25179720099211517</v>
+        <v>0.22302525918506375</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.701896350275587</v>
+        <v>3.4445175237147385</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.026558341346452245</v>
+        <v>0.026201054409798245</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03914403453825469</v>
+        <v>0.05166588321686358</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.18218614992610546</v>
+        <v>0.15451967748352327</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7684772052357839</v>
+        <v>0.729219506219844</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7901833741701717</v>
+        <v>0.7625763031381505</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8818017611949915</v>
+        <v>0.8633286994807127</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25504873150487173</v>
+        <v>0.21114284363055727</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.7660665404611446</v>
+        <v>3.2118794931487975</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.024801777760062975</v>
+        <v>0.027098456339864723</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03839746661785301</v>
+        <v>0.05204291459476915</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.18218614992610546</v>
+        <v>0.1522805045555195</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7563580123797626</v>
+        <v>0.74758908554562</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7842198847577805</v>
+        <v>0.7696700701662755</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8887634259306985</v>
+        <v>0.873545081287977</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24834365652069113</v>
+        <v>0.21781291144817205</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.6343473256443035</v>
+        <v>3.3415981619145283</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02651582996559317</v>
+        <v>0.02490364438252683</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04199552978215223</v>
+        <v>0.052072628592211366</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.16920484967156718</v>
+        <v>0.15451967748352327</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7443379394272479</v>
+        <v>0.7298724614903679</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7757805142764127</v>
+        <v>0.7634918253928885</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8834242338622711</v>
+        <v>0.8765574889745775</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23927633854117047</v>
+        <v>0.21198743949425353</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.4599156793748835</v>
+        <v>3.228183662831973</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02762446753973407</v>
+        <v>0.027330900620809968</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0427416803852852</v>
+        <v>0.056029902030147294</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.16725759834750442</v>
+        <v>0.13520480596932916</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7405946423601176</v>
+        <v>0.7212385846268538</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.769943247430985</v>
+        <v>0.7590357185998552</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8646171597405871</v>
+        <v>0.8715687406285104</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23327601736310158</v>
+        <v>0.20792040851395877</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.3467535242201087</v>
+        <v>3.1499926635989777</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02786480148078799</v>
+        <v>0.02803144941784194</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.0380933683360997</v>
+        <v>0.05572899736654853</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.17486002355903876</v>
+        <v>0.14283256455060941</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7460415329155599</v>
+        <v>0.7173317892909421</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.775416948295111</v>
+        <v>0.7549907927995851</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8667690976820188</v>
+        <v>0.8546850670050822</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23889631458641913</v>
+        <v>0.20432208368646143</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.452695750675076</v>
+        <v>3.081479269397461</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.027320730115648898</v>
+        <v>0.028262939172269817</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03737864167144161</v>
+        <v>0.05144474846925178</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.17486002355903876</v>
+        <v>0.13926890850511117</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7225636527145897</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7595302368995308</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8565727025996119</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20836635325110642</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.158526989450214</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.027748784387947843</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05105109923884009</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.15113706639464508</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>196.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6055226148184519</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6872617668962129</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6633387396316561</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5296987650902654</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.923469387755102</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.8648463352951606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5624274443744586</v>
+        <v>0.14213549587754037</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6396855830948702</v>
+        <v>0.3016976514275631</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6207141005342179</v>
+        <v>0.2146484047976771</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4716021443883749</v>
+        <v>0.12899676789058967</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.494897959183674</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>0.9580827488462775</v>
+        <v>0.1007559080595072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5287663603698426</v>
+        <v>0.5353969775248072</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6193426458663016</v>
+        <v>0.6143766706706373</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5933055300506797</v>
+        <v>0.5824079438755867</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.45187979121839666</v>
+        <v>0.4457818104612658</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.9846938775510203</v>
+        <v>3.923469387755102</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.7875768798700944</v>
+        <v>0.8648463352951606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.4740810969230586</v>
+        <v>0.4873539612255426</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5698298084485897</v>
+        <v>0.5662076725060441</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5495975403913895</v>
+        <v>0.5299548515493976</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.3791667130859519</v>
+        <v>0.38132893634627557</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.48469387755102</v>
+        <v>4.494897959183674</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>0.9028560995960032</v>
+        <v>0.9580827488462775</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5951822479833131</v>
+        <v>0.6173103906529016</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5329123297484951</v>
+        <v>0.6088813513480921</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5593203380944723</v>
+        <v>0.6430175004692473</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4548479650189877</v>
+        <v>0.5863126279366723</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6071428571428571</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4723955711522354</v>
+        <v>0.36096852100344706</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.58310822396281</v>
+        <v>0.6418805375328483</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5203863214235055</v>
+        <v>0.6267439723264168</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5459946389451428</v>
+        <v>0.6638584475504067</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.42924264475055296</v>
+        <v>0.5031624689485888</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.6479591836734694</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5700876729945963</v>
+        <v>1.4723955711522354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4767974478440051</v>
+        <v>0.6322162695478871</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4437078325939526</v>
+        <v>0.6191156457612494</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.38009644324009517</v>
+        <v>0.6556562809998461</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3509896467155715</v>
+        <v>0.4799131808045386</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.107142857142857</v>
+        <v>0.6479591836734694</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.173969815712963</v>
+        <v>1.5700876729945963</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.462414561578967</v>
+        <v>0.3093581343132703</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.41660995608472057</v>
+        <v>0.3807899943567525</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3481347984627044</v>
+        <v>0.3007945458693778</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.27835610462492594</v>
+        <v>0.28526309149456835</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.3214285714285716</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6373054787574708</v>
+        <v>0.19837118002726803</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5331248354782196</v>
+        <v>0.4977714530217983</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4724892699012872</v>
+        <v>0.4969499753159343</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3829947298363897</v>
+        <v>0.4556243831917455</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3626277931435117</v>
+        <v>0.36679579008176394</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.9948979591836735</v>
+        <v>3.107142857142857</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.6251152195194538</v>
+        <v>1.173969815712963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5659709719452468</v>
+        <v>0.4704544362587977</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5480552416536743</v>
+        <v>0.4317448032584108</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4729918715042431</v>
+        <v>0.3687842199495997</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.43637198210475253</v>
+        <v>0.2757539068660304</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.795918367346939</v>
+        <v>3.3214285714285716</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3240124228518548</v>
+        <v>1.6373054787574708</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5869192052430823</v>
+        <v>0.5633200401833123</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5980612193497576</v>
+        <v>0.4886933848108197</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5770737374898335</v>
+        <v>0.4047311277601995</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4751040742361286</v>
+        <v>0.38781099220135784</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.663265306122449</v>
+        <v>1.9948979591836735</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.1935199185260241</v>
+        <v>1.6251152195194538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>196.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5423738457632412</v>
+        <v>0.5689760447361609</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5512223170220277</v>
+        <v>0.5284518193702199</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5267253833697119</v>
+        <v>0.4588377701567916</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4254081012845002</v>
+        <v>0.4314106778431293</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.795918367346939</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3240124228518548</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>196.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5870060686890745</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5636282817258488</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5457666046984065</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4678846563979818</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.663265306122449</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.1935199185260241</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>196.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5482381784341489</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5240923579510915</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5030466175718272</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4246521804514181</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.3622448979591835</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1751281703033514</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.18877551020408162</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5663265306122449</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.1377551020408163</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.08673469387755102</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.7346938775510204</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.015306122448979591</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.00510204081632653</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.20918367346938777</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5204081632653061</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.025510204081632654</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.20408163265306123</v>
+        <v>0.18877551020408162</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.030612244897959183</v>
+        <v>0.5663265306122449</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.7397959183673469</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8469387755102041</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.00510204081632653</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.030612244897959183</v>
+        <v>0.1377551020408163</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.07653061224489796</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.04081632653061224</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8469387755102041</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.00510204081632653</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.03571428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.030612244897959183</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08163265306122448</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
+        <v>0.8469387755102041</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.07653061224489796</v>
+      </c>
+      <c r="G49" t="n" s="114">
         <v>0.04081632653061224</v>
-      </c>
-      <c r="C49" t="n" s="110">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.4489795918367347</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.33163265306122447</v>
-      </c>
-      <c r="G49" t="n" s="114">
-        <v>0.061224489795918366</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.04081632653061224</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.14285714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.17346938775510204</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.11734693877551021</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.14795918367346939</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.37755102040816324</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.3469387755102041</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.061224489795918366</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05612244897959184</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.32142857142857145</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.21428571428571427</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1377551020408163</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.04081632653061224</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.04591836734693878</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4387755102040816</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.336734693877551</v>
+        <v>0.33163265306122447</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.061224489795918366</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.09183673469387756</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.02040816326530612</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.32142857142857145</v>
+        <v>0.17346938775510204</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2653061224489796</v>
+        <v>0.11734693877551021</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.3010204081632653</v>
+        <v>0.14795918367346939</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.37755102040816324</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.3469387755102041</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.061224489795918366</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.05612244897959184</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.1377551020408163</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.04591836734693878</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4387755102040816</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.336734693877551</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.09183673469387756</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.3010204081632653</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.12244897959183673</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.02040816326530612</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.413265306122449</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.2602040816326531</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.1836734693877551</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8486171939854175</v>
+        <v>0.8750183086471742</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8498476627219689</v>
+        <v>0.9916355483835019</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.854711974384546</v>
+        <v>0.9877396796988629</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5859171666503525</v>
+        <v>0.9753195224708353</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.659902990043635</v>
+        <v>118.55356380179143</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.017808818853994386</v>
+        <v>0.0017638906555265642</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.221938775510204</v>
+        <v>0.46938775510204084</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.7301937335666688</v>
+        <v>1.1270683901154541</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.62174975587156</v>
+        <v>0.9732577986128709</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8080124736499272</v>
+        <v>0.9889922923208678</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8106264707472824</v>
+        <v>0.9900231882370347</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7746279259251038</v>
+        <v>0.9802434835200816</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.587944297502983</v>
+        <v>0.9802434835200815</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.280569063406466</v>
+        <v>99.2324213144002</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.02380822476976564</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.020130807388790504</v>
-      </c>
+        <v>0.0014955255371039786</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6579712541775782</v>
+        <v>0.9802434835200815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.809391396461261</v>
+        <v>0.5965351612515297</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8128114978511229</v>
+        <v>0.98644769000486</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7538869566077544</v>
+        <v>0.973257798612871</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5914035925436876</v>
+        <v>0.9732577986128708</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.342208461098042</v>
+        <v>72.78815865034134</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02381144778450394</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.007570326073503642</v>
-      </c>
+        <v>0.006388125754258778</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5855282575655418</v>
+        <v>0.9732577986128709</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8237701995350364</v>
+        <v>0.6204779068215194</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8231277247188163</v>
+        <v>0.9860363441449413</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7685265385345466</v>
+        <v>0.9724572852795533</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6080377013350677</v>
+        <v>0.9724572852795532</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.6537973428014325</v>
+        <v>70.61448336881867</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.021679444019263455</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.007583622974821017</v>
-      </c>
+        <v>0.00654415322192438</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6579712541775782</v>
+        <v>0.9724572852795533</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7879777264701888</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7899630623694084</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.736436115165183</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5562830752196722</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.761067321209843</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02608518489886736</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.014330184616342617</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5855282575655418</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>196.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9821676668297319</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9900840603774103</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9812992445674805</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9777063933549754</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.36096852100344706</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>196.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8269136569377942</v>
+        <v>0.9944650146214994</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8284929277790832</v>
+        <v>0.9924320183707911</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7539770792594922</v>
+        <v>0.9875177215422565</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6864345688210722</v>
+        <v>0.9827906680114661</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.923469387755102</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8648463352951606</v>
+        <v>1.4723955711522354</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>196.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8409511030712042</v>
+        <v>0.9951212941497098</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8253682783504057</v>
+        <v>0.9927010788429907</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7660653869051335</v>
+        <v>0.9881053858421929</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6879538720845565</v>
+        <v>0.9831592526444828</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.494897959183674</v>
+        <v>0.6479591836734694</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9580827488462775</v>
+        <v>1.5700876729945963</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>196.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7928907450771012</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.810343321554307</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7398370313681418</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6514602956361994</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.9846938775510203</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.7875768798700944</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>196.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8588949282660092</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8570913037356563</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8106795586556084</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7317027808069599</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.48469387755102</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>0.9028560995960032</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8469387755102041</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8469387755102041</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.07653061224489796</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.01020408163265306</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.02040816326530612</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.18877551020408162</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5663265306122449</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.21428571428571427</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.1377551020408163</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.08673469387755102</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.7346938775510204</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.015306122448979591</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.00510204081632653</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.20918367346938777</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5204081632653061</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.25</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.025510204081632654</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.20408163265306123</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.7397959183673469</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7456418383518226</v>
+        <v>0.6266058524400038</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7712246100092524</v>
+        <v>0.7729142438258982</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6276367644497336</v>
+        <v>0.7096767356687461</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6276367644497336</v>
+        <v>0.5315151873507634</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.371099531468149</v>
+        <v>3.4036227407998316</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03331799355524731</v>
+        <v>0.024922302493165994</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.2142857142857144</v>
+        <v>2.4625850340136055</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2719861311935432</v>
+        <v>0.8843464959651662</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6276367644497336</v>
+        <v>0.547370123818685</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.7456418383518226</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.7712246100092524</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.6276367644497336</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6276367644497336</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.3939279080889303</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6276367644497336</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6276367644497336</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.371099531468149</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03331799355524731</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6276367644497336</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.3939279080889303</v>
+        <v>0.1821313352975633</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6276367644497336</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3939279080889303</v>
-      </c>
+        <v>0.5910915729623119</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.41953867378387144</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.41953867378387133</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.4455353176368566</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.025455795822298125</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6276367644497336</v>
+        <v>0.4195386737838714</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.30486679286015983</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7074844155163793</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.547370123818685</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.547370123818685</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.4186212736846335</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.027758994242869817</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.547370123818685</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>196.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8654193920928576</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9021188293261962</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7146903779045385</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6276367644497335</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.107142857142857</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.173969815712963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>196.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.933238200178128</v>
+        <v>0.575898006615207</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9021188293261962</v>
+        <v>0.7906254396293411</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7146903779045385</v>
+        <v>0.6088693043653749</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6276367644497335</v>
+        <v>0.5226114263037053</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.19837118002726803</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>196.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8707693182592784</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8742732654051293</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7953427182542031</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6567996764991563</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.107142857142857</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.173969815712963</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>196.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.926241953220253</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8228896951524467</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6915584766744047</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6340998181924441</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.3214285714285716</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6373054787574708</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.04081632653061224</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.10714285714285714</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.01020408163265306</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4489795918367347</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.33163265306122447</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.061224489795918366</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.04081632653061224</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.17346938775510204</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.11734693877551021</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.14795918367346939</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.37755102040816324</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8799845404168865</v>
+        <v>0.6449508791912864</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8800439624003005</v>
+        <v>0.7737336122295357</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7857843815784226</v>
+        <v>0.7095486532029058</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7857843815784225</v>
+        <v>0.532678935207775</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.336387396664928</v>
+        <v>3.4195693839177266</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.017139663326063568</v>
+        <v>0.02164336083271993</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.5127551020408165</v>
+        <v>3.1360544217687076</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.119107043859014</v>
+        <v>0.5715710038199088</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7857843815784223</v>
+        <v>0.4775751046820843</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7857843815784225</v>
+        <v>0.7917030401943295</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7857843815784225</v>
+        <v>0.7942068669547384</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6174570943325841</v>
+        <v>0.6586593049746007</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7857843815784225</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7857843815784225</v>
-      </c>
+        <v>0.6586593049746008</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.8592486309057867</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.0294840772227161</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7857843815784225</v>
+        <v>0.6586593049746007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6174570943325841</v>
+        <v>0.1807411206564946</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7857843815784225</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6174570943325841</v>
-      </c>
+        <v>0.6464309031314377</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.4775751046820842</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.4775751046820842</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.828301480125526</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02149733126473721</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7857843815784225</v>
+        <v>0.4775751046820843</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.19194408910798422</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.631826021411418</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.46180239596663997</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4618023959666402</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.7161072160329265</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.02367153633624536</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.46180239596664013</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>196.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9458064323335261</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9449297279635196</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8376280427227252</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7857843815784227</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.663265306122449</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.1935199185260241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>196.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9440461897629012</v>
+        <v>0.5585194026730194</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9449297279635197</v>
+        <v>0.7791194900608085</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.837628042722725</v>
+        <v>0.5750525291501608</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7857843815784223</v>
+        <v>0.5160627302360435</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.3622448979591835</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1751281703033514</v>
+        <v>0.1007559080595072</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>196.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8995241548875986</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8518676939266268</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7546776154269433</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6708124229588098</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.923469387755102</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.8648463352951606</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>196.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9190111335068085</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8582041729087455</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7670330003694407</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6745942668252889</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.494897959183674</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>0.9580827488462775</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.09183673469387756</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9897959183673469</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="C26" t="n" s="455">
         <v>0.02040816326530612</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.32142857142857145</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2653061224489796</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.3010204081632653</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.12244897959183673</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.413265306122449</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2602040816326531</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1836734693877551</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.18877551020408162</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5663265306122449</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.1377551020408163</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.08673469387755102</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9889922923208678</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9900231882370347</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9802434835200816</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9802434835200815</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>99.2324213144002</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0014955255371039786</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6275510204081632</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.513717150846942</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9802434835200815</v>
+      <c r="A6" t="n" s="491">
+        <v>0.622925951284711</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6319032690704554</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.46188493458434965</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.46188493458434965</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.7166772100222873</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05246649885390774</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.395408163265306</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2630972663826312</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.46188493458434954</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9802434835200816</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9802434835200816</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9608772869835845</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9802434835200816</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9802434835200816</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9802434835200816</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.4618849345843496</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.4618849345843496</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.21333769279598902</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.4618849345843496</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.4618849345843496</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.4618849345843496</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9608772869835845</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9802434835200816</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9608772869835845</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9802434835200816</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.21333769279598902</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.4618849345843496</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.21333769279598902</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.4618849345843496</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>196.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9947247342330265</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9950486127622312</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9851702316106759</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9802434835200817</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4723955711522354</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8853857380448548</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8549517338962326</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5810432976036892</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.46188493458434965</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.9948979591836735</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.6251152195194538</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>196.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.995362256117127</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9950486127622312</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.985170231610676</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9802434835200816</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.6479591836734694</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.5700876729945963</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8212465955425318</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8549517338962328</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5810432976036892</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.46188493458434954</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.795918367346939</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3240124228518548</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8469387755102041</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.00510204081632653</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.07653061224489796</v>
-      </c>
-      <c r="G23" t="n" s="573">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.3469387755102041</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.061224489795918366</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05612244897959184</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.1377551020408163</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.04081632653061224</v>
       </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8469387755102041</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.00510204081632653</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08163265306122448</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="D24" t="n" s="571">
+        <v>0.04591836734693878</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4387755102040816</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.336734693877551</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.622925951284711</v>
+        <v>0.8799845404168865</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6319032690704554</v>
+        <v>0.8800439624003005</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.46188493458434965</v>
+        <v>0.7857843815784226</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.46188493458434965</v>
+        <v>0.7857843815784225</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.7166772100222873</v>
+        <v>7.336387396664928</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05246649885390774</v>
+        <v>0.017139663326063568</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.395408163265306</v>
+        <v>2.5127551020408165</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2630972663826312</v>
+        <v>1.119107043859014</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.46188493458434954</v>
+        <v>0.7857843815784223</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.4618849345843496</v>
+        <v>0.7857843815784225</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.4618849345843496</v>
+        <v>0.7857843815784225</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.21333769279598902</v>
+        <v>0.6174570943325841</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.4618849345843496</v>
+        <v>0.7857843815784225</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.4618849345843496</v>
+        <v>0.7857843815784225</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.4618849345843496</v>
+        <v>0.7857843815784225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.21333769279598902</v>
+        <v>0.6174570943325841</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.4618849345843496</v>
+        <v>0.7857843815784225</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.21333769279598902</v>
+        <v>0.6174570943325841</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.4618849345843496</v>
+        <v>0.7857843815784225</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>196.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8853857380448548</v>
+        <v>0.9458064323335261</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8549517338962326</v>
+        <v>0.9449297279635196</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5810432976036892</v>
+        <v>0.8376280427227252</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.46188493458434965</v>
+        <v>0.7857843815784227</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.9948979591836735</v>
+        <v>2.663265306122449</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.6251152195194538</v>
+        <v>1.1935199185260241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>196.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8212465955425318</v>
+        <v>0.9440461897629012</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8549517338962328</v>
+        <v>0.9449297279635197</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5810432976036892</v>
+        <v>0.837628042722725</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.46188493458434954</v>
+        <v>0.7857843815784223</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.795918367346939</v>
+        <v>2.3622448979591835</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3240124228518548</v>
+        <v>1.1751281703033514</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.3469387755102041</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.061224489795918366</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05612244897959184</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.32142857142857145</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.21428571428571427</v>
+        <v>0.3010204081632653</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.1377551020408163</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.04081632653061224</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.04591836734693878</v>
+        <v>0.413265306122449</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4387755102040816</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.336734693877551</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.77242788684055</v>
+        <v>0.754282940196552</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7977166591786983</v>
+        <v>0.7851620993570751</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8936467299269772</v>
+        <v>0.8861057541076639</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.28282308064695366</v>
+        <v>0.26764993945657223</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.943560828785228</v>
+        <v>3.6546721831082687</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.024793168940459343</v>
+        <v>0.025068991177889507</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.795918367346939</v>
+        <v>2.063265306122449</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.6999514074484854</v>
+        <v>0.6516862159993071</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.21103813172416916</v>
+        <v>0.18492052912411092</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7439388373588025</v>
+        <v>0.7392813171546739</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7608229872327321</v>
+        <v>0.753152291375347</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8709362823715132</v>
+        <v>0.8578640049899597</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2611446359050351</v>
+        <v>0.25317901452217456</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.1810038031249</v>
+        <v>3.0510807476060506</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.027844421980762698</v>
+        <v>0.027282943244844524</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04367308130360943</v>
+        <v>0.046263450815598434</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.18035218183647606</v>
+        <v>0.20475873807810854</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7465581358547296</v>
+        <v>0.7121225185104575</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7666454495719262</v>
+        <v>0.7512453288068193</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.865961617896121</v>
+        <v>0.856331074768951</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.26741862516330783</v>
+        <v>0.25124947816990856</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.2853246194066696</v>
+        <v>3.020025011805341</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02751224560340942</v>
+        <v>0.028971948434722273</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04283741050308864</v>
+        <v>0.04628938786414046</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.1890897099692474</v>
+        <v>0.1934525231126156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7576092997378799</v>
+        <v>0.7163901870649221</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7764942834382713</v>
+        <v>0.7519656328972061</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8731265620517531</v>
+        <v>0.8568982376995711</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2785084456788012</v>
+        <v>0.2519759904219472</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.4741584930505156</v>
+        <v>3.0316993636029697</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.026548792011922177</v>
+        <v>0.028456163847724408</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04248322748976942</v>
+        <v>0.046107714369041417</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20609140134554377</v>
+        <v>0.19487078190146623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7589276507524734</v>
+        <v>0.762203944191437</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7786688481683771</v>
+        <v>0.7980626253448371</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.868726491391009</v>
+        <v>0.8933651973634367</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2810420186179734</v>
+        <v>0.30512824749181455</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.5181168205402344</v>
+        <v>3.9520303099297185</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.02627944395692426</v>
+        <v>0.025448111082818362</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03852574826191604</v>
+        <v>0.06216933891235692</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.22216109471658363</v>
+        <v>0.2118724732777626</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7467384679101969</v>
+        <v>0.7302793636641368</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7772904745735063</v>
+        <v>0.7540567298049927</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8673071975010014</v>
+        <v>0.8674281084541949</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2794324061226453</v>
+        <v>0.2541010952323585</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.4901537017106805</v>
+        <v>3.065978301447745</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.027592050852977022</v>
+        <v>0.02739412206142279</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04407279003835864</v>
+        <v>0.0721897065711369</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.1890897099692474</v>
+        <v>0.17814764947212197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7515400025762838</v>
+        <v>0.7350949190456129</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7822802565476081</v>
+        <v>0.7599806308522308</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8693225049260528</v>
+        <v>0.8679510726229807</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.28532068530225957</v>
+        <v>0.260253528678012</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.593060712560812</v>
+        <v>3.166330423876517</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02711421290258618</v>
+        <v>0.02686174594492959</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04307615595740061</v>
+        <v>0.07169253457376831</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.1890897099692474</v>
+        <v>0.1835533395251082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7475056170038932</v>
+        <v>0.7484502244337795</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7858521213634515</v>
+        <v>0.7809951220367692</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8449031527350948</v>
+        <v>0.8889704007602756</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2896421335888772</v>
+        <v>0.28378780798867287</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.6696703528742365</v>
+        <v>3.5661083410566428</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.027442729606109422</v>
+        <v>0.02568129173922685</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03568684247732285</v>
+        <v>0.07353996490054368</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.23394929682987667</v>
+        <v>0.19109722480948657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7523417901452967</v>
+        <v>0.7351733409610983</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.787049304486182</v>
+        <v>0.7758129751009611</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8455804215754941</v>
+        <v>0.8828683158745323</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2911109944934267</v>
+        <v>0.2777211493343981</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.6959226763131765</v>
+        <v>3.460561446186922</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.026888552376579885</v>
+        <v>0.026809715057593775</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03526796500018205</v>
+        <v>0.07366978781450478</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.23564543153293874</v>
+        <v>0.1835533395251082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7728869873394111</v>
+        <v>0.7244610678429901</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.797070348852617</v>
+        <v>0.7662557381952718</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8974812739880521</v>
+        <v>0.8590326190578994</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.30382673008668615</v>
+        <v>0.26699233262313493</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.92781608969368</v>
+        <v>3.278179888905286</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.02524142735923106</v>
+        <v>0.027659804022380205</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04735471505202564</v>
+        <v>0.06769767936994259</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.22216109471658363</v>
+        <v>0.1835533395251082</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7556512473606007</v>
+        <v>0.7287689625593995</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7867836291897048</v>
+        <v>0.7708796444986217</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8912037111029689</v>
+        <v>0.8611410814917404</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.29078413151052424</v>
+        <v>0.2721107501033011</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.690071387106242</v>
+        <v>3.364518367701224</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.026854095975236206</v>
+        <v>0.027248494639552708</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04975779062626637</v>
+        <v>0.06671523275529305</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.19939758921299067</v>
+        <v>0.1835533395251082</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6492427449413418</v>
+        <v>0.6802061027095673</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7265015231385148</v>
+        <v>0.6730802410122863</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6947727663986889</v>
+        <v>0.7072373622480396</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5685725598458923</v>
+        <v>0.6487016397157261</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.923469387755102</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.8648463352951606</v>
+        <v>0.36096852100344706</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6147923823242574</v>
+        <v>0.6972969548495023</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6885688736328277</v>
+        <v>0.6849776270875079</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6640371552228789</v>
+        <v>0.7218623006168606</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5182387349010876</v>
+        <v>0.5494483586467078</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.494897959183674</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>0.9580827488462775</v>
+        <v>1.4723955711522354</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.524552962219955</v>
+        <v>0.6924715785303118</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6215196235658932</v>
+        <v>0.6804980033992931</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.5842384506857026</v>
+        <v>0.7171643660063429</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.4356270282767471</v>
+        <v>0.5305407657866091</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.9846938775510203</v>
+        <v>0.6479591836734694</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.7875768798700944</v>
+        <v>1.5700876729945963</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5078884488967846</v>
+        <v>0.1660840669238</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6062015969734839</v>
+        <v>0.3527649071106401</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5800054120518003</v>
+        <v>0.2511707809165609</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4026264368755308</v>
+        <v>0.1509933929843605</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.48469387755102</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>0.9028560995960032</v>
+        <v>0.1007559080595072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6128180672321437</v>
+        <v>0.5745849431780905</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6159333424565905</v>
+        <v>0.667394755901477</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5873179003531499</v>
+        <v>0.6234439962643356</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.48841667687849805</v>
+        <v>0.47507870479236136</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.663265306122449</v>
+        <v>3.923469387755102</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.1935199185260241</v>
+        <v>0.8648463352951606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5803825393653034</v>
+        <v>0.5352130221035262</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5803327028766887</v>
+        <v>0.6294592819628362</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5489220790582515</v>
+        <v>0.5819091631746075</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.45187281473693014</v>
+        <v>0.4175745891087605</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.3622448979591835</v>
+        <v>4.494897959183674</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1751281703033514</v>
+        <v>0.9580827488462775</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6363485055937674</v>
+        <v>0.5784649866061539</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5542051504590505</v>
+        <v>0.48434856319756614</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5794767104173967</v>
+        <v>0.3782885177849114</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.48341724499347943</v>
+        <v>0.3741443240039652</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6071428571428571</v>
+        <v>1.9948979591836735</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4723955711522354</v>
+        <v>1.6251152195194538</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6286376740194808</v>
+        <v>0.5749085004192743</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5453243915716465</v>
+        <v>0.5217551557770364</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5700560374522057</v>
+        <v>0.43096938514317934</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.46128155455892245</v>
+        <v>0.4136408130541759</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.6479591836734694</v>
+        <v>2.795918367346939</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.5700876729945963</v>
+        <v>1.3240124228518548</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5432324141195697</v>
+        <v>0.6163040567230523</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.46844483032118694</v>
+        <v>0.5879082885720142</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3628797757218318</v>
+        <v>0.5591362420001647</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.34741310858829877</v>
+        <v>0.48194536177485114</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.9948979591836735</v>
+        <v>2.663265306122449</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.6251152195194538</v>
+        <v>1.1935199185260241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>196.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5718210936230288</v>
+        <v>0.5906774550722166</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5473006109205196</v>
+        <v>0.5563484846926078</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.45709644540391015</v>
+        <v>0.5248174464881685</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.42272226635811244</v>
+        <v>0.45330303090315804</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.795918367346939</v>
+        <v>2.3622448979591835</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3240124228518548</v>
+        <v>1.1751281703033514</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.01020408163265306</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.02040816326530612</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.18877551020408162</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5663265306122449</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.21428571428571427</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.01020408163265306</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="D40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="800">
         <v>0.030612244897959183</v>
       </c>
-      <c r="E40" t="n" s="800">
-        <v>0.1377551020408163</v>
-      </c>
       <c r="F40" t="n" s="801">
-        <v>0.08673469387755102</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.7346938775510204</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.015306122448979591</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
         <v>0.00510204081632653</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.20918367346938777</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5204081632653061</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.25</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.025510204081632654</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.20408163265306123</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.030612244897959183</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.7397959183673469</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.09183673469387756</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C43" t="n" s="798">
         <v>0.02040816326530612</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.32142857142857145</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2653061224489796</v>
+        <v>0.18877551020408162</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.3010204081632653</v>
+        <v>0.5663265306122449</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.12244897959183673</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.02040816326530612</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.413265306122449</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.2602040816326531</v>
+        <v>0.1377551020408163</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.1836734693877551</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8469387755102041</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.00510204081632653</v>
+        <v>0.061224489795918366</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.030612244897959183</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.07653061224489796</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.04081632653061224</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8469387755102041</v>
+        <v>0.1377551020408163</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.00510204081632653</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.03571428571428571</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.030612244897959183</v>
+        <v>0.336734693877551</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.08163265306122448</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.3469387755102041</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.061224489795918366</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05612244897959184</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.32142857142857145</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.21428571428571427</v>
+        <v>0.3010204081632653</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.1377551020408163</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.04081632653061224</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.04591836734693878</v>
+        <v>0.413265306122449</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4387755102040816</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.336734693877551</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
